--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44790</v>
+        <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45771</v>
+        <v>45251</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44972</v>
+        <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2117,8 +2117,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2155,14 +2160,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2174,8 +2179,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2222,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45975</v>
+        <v>45903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2232,7 +2242,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2279,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45827.364375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2290,11 +2300,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2331,14 +2341,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44972</v>
+        <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2351,7 +2361,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2388,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2407,8 +2417,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2445,14 +2460,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45903</v>
+        <v>45827.32375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2464,8 +2479,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2502,14 +2522,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2521,13 +2541,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2564,14 +2579,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951</v>
+        <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2584,7 +2599,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2621,14 +2636,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2640,8 +2655,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2678,14 +2698,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2698,7 +2718,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2735,14 +2755,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45234</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2755,7 +2775,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2792,14 +2812,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2812,7 +2832,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2849,14 +2869,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45926</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2868,13 +2888,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2911,14 +2926,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45041</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2930,8 +2945,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2968,14 +2988,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2988,7 +3008,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3025,14 +3045,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44911</v>
+        <v>45211</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3044,13 +3064,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3087,14 +3102,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3107,7 +3122,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3144,14 +3159,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3164,7 +3179,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3201,14 +3216,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3220,13 +3235,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3263,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3283,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3320,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45679</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3340,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3377,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45968</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3397,7 +3407,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3434,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45958</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3453,8 +3463,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3491,14 +3506,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3510,13 +3525,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3553,14 +3563,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45960</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3573,7 +3583,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3610,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44782</v>
+        <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3630,7 +3640,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3667,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45251</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3687,7 +3697,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3724,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3743,8 +3753,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3781,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45968</v>
+        <v>45631</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3801,7 +3816,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3838,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45471</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3857,8 +3872,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3895,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44972</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3915,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3952,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3971,13 +3991,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4014,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44972</v>
+        <v>45041</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4034,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4071,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44972</v>
+        <v>45282</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4091,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4128,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4147,13 +4162,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4190,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4210,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4247,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4267,7 +4277,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4304,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45197</v>
+        <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4323,13 +4333,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4366,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4385,13 +4390,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4504,13 +4504,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>21.3</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45448</v>
+        <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4567,7 +4562,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4623,8 +4618,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45631</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45211</v>
+        <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44258</v>
+        <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45282</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5022,8 +5022,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5067,7 +5072,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5117,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45420</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5137,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5174,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5193,8 +5198,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>21.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5231,14 +5241,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45699</v>
+        <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5250,13 +5260,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5298,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5312,13 +5317,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5355,14 +5355,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45251</v>
+        <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45251</v>
+        <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45744</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45251</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5716,8 +5716,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5759,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45679</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5779,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5816,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5836,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5873,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5887,8 +5892,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>12.9</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5955,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5982,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6001,8 +6011,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45644</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6096,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6115,13 +6130,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>12.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6158,14 +6168,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6177,13 +6187,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6220,14 +6225,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6239,13 +6244,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45251</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45812.34395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45000.41804398148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45000.37181712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45827.32375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45936.63261574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45216.67372685186</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45951.7856712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45188.43435185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>45211</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>45272.58515046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>45960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45679</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45968</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45973.59792824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44812.47114583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45978.47861111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45980.41454861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>45631</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45999.55783564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45041</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45282</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>46044.65489583334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45796.60744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45251</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45812.34395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45000.41804398148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45000.37181712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45827.32375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45936.63261574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45216.67372685186</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45951.7856712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45188.43435185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>45211</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>45272.58515046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>45960</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45448</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45679</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45968</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45973.59792824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44812.47114583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45978.47861111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45980.41454861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>45631</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45999.55783564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45041</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45282</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>46044.65489583334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>45796.60744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45771</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45251</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45251</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45197</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45644</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45234</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2117,13 +2117,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2160,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45041</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2179,13 +2174,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2222,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45903</v>
+        <v>45827.32375</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2241,8 +2231,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2286,7 +2281,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,14 +2336,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44790</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2360,8 +2355,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>44782</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2417,13 +2417,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2460,14 +2455,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45251</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2479,13 +2474,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2522,14 +2512,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2542,7 +2532,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2579,14 +2569,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2599,7 +2589,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2636,14 +2626,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45926</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2661,7 +2651,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2698,14 +2688,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>44972</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2718,7 +2708,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2755,14 +2745,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>44972</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2775,7 +2765,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2812,14 +2802,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45903</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2832,7 +2822,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2869,14 +2859,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2889,7 +2879,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2926,14 +2916,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2951,7 +2941,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2988,14 +2978,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3008,7 +2998,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3045,14 +3035,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45211</v>
+        <v>45197</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3064,8 +3054,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3102,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45958</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3122,7 +3117,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3159,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3179,7 +3174,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3216,14 +3211,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45960</v>
+        <v>44790</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3236,7 +3231,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3273,14 +3268,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45448</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3292,8 +3287,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45679</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45968</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3463,13 +3463,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3506,14 +3501,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45975</v>
+        <v>45958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3526,7 +3521,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3563,14 +3558,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>44972</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3583,7 +3578,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3620,14 +3615,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3640,7 +3635,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3677,14 +3672,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45960</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3697,7 +3692,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3734,14 +3729,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3755,11 +3750,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3791,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45631</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3815,8 +3810,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45968</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3872,13 +3872,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3967,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3991,8 +3986,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45041</v>
+        <v>45471</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45282</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45975</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4276,8 +4276,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44782</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4334,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4390,8 +4395,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4438,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4458,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4495,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44972</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4515,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4552,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44972</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4572,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4609,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44911</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4634,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>21.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4671,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45448</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4691,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4728,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45420</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4748,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4785,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45631</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4805,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4842,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44972</v>
+        <v>45211</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4862,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4899,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45471</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4919,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4956,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45251</v>
+        <v>44258</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4976,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5013,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5022,13 +5032,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5070,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5085,7 +5090,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5127,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45282</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5147,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5184,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5198,13 +5203,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>21.3</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5241,14 +5241,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45251</v>
+        <v>45420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5298,14 +5298,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44951</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5355,14 +5355,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45771</v>
+        <v>45699</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5374,8 +5374,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44258</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5431,8 +5436,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5479,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45251</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5526,14 +5536,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45234</v>
+        <v>45251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5556,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5593,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45744</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5613,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5650,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5670,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5707,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5716,13 +5726,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5759,14 +5764,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5779,7 +5784,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5816,14 +5821,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45744</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5836,7 +5841,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5873,14 +5878,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45699</v>
+        <v>45679</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5892,13 +5897,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6011,13 +6011,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>12.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6061,7 +6056,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6111,14 +6106,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6126,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6163,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45644</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6183,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6225,14 +6220,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6244,8 +6239,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45771</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44951</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45744</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45234</v>
+        <v>45699</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2117,8 +2117,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2155,14 +2160,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45041</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2175,7 +2180,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2217,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2237,7 +2242,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2274,14 +2279,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2293,13 +2298,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2336,14 +2336,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2355,13 +2355,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>12.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2398,14 +2393,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44782</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2418,7 +2413,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2455,14 +2450,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45251</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2475,7 +2470,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2512,14 +2507,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45251</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2532,7 +2527,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2569,14 +2564,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44972</v>
+        <v>45903</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2589,7 +2584,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2626,14 +2621,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45197</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2651,7 +2646,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2688,14 +2683,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44972</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2708,7 +2703,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2745,14 +2740,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44972</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2765,7 +2760,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2802,14 +2797,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45903</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2822,7 +2817,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2859,14 +2854,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2878,8 +2873,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45926</v>
+        <v>45644</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2935,13 +2935,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2978,14 +2973,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2997,8 +2992,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3035,14 +3035,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45197</v>
+        <v>45926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>44790</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3173,8 +3173,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3211,14 +3216,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44790</v>
+        <v>45827.364375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3230,8 +3235,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3268,14 +3278,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45827.32375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3289,11 +3299,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3340,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>44972</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3350,7 +3360,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3397,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3417,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3454,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3464,7 +3474,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3501,14 +3511,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45958</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3520,8 +3530,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3558,14 +3573,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44972</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3578,7 +3593,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3615,14 +3630,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44972</v>
+        <v>45211</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3635,7 +3650,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3672,14 +3687,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45960</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3692,7 +3707,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3729,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44911</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3748,13 +3763,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3791,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3810,13 +3820,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45968</v>
+        <v>45448</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45679</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3967,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45958</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3986,13 +3991,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45471</v>
+        <v>45960</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45975</v>
+        <v>44972</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45968</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45975</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4395,13 +4395,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4438,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4457,8 +4452,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4495,14 +4495,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45631</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4552,14 +4552,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4569,6 +4569,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -4609,14 +4614,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4628,13 +4633,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>21.3</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4671,14 +4671,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45448</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4728,14 +4728,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4785,14 +4785,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45631</v>
+        <v>45282</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4842,14 +4842,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45211</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4899,14 +4899,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4956,14 +4956,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44258</v>
+        <v>44782</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5013,14 +5013,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,14 +5127,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45282</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5184,14 +5184,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>44972</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5241,14 +5241,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45420</v>
+        <v>44972</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5298,14 +5298,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>44911</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5315,6 +5315,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -5355,14 +5360,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45699</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5374,13 +5379,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45420</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5436,13 +5436,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5479,14 +5474,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45251</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5499,7 +5494,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5536,14 +5531,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45251</v>
+        <v>44972</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5556,7 +5551,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5593,14 +5588,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45744</v>
+        <v>45471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5613,7 +5608,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5650,14 +5645,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45251</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5670,7 +5665,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5707,14 +5702,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5726,8 +5721,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5764,14 +5764,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45251</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,14 +5878,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45679</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5897,8 +5897,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>21.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5940,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45251</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5955,7 +5960,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5997,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>44951</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6012,7 +6017,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>12.9</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6049,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45771</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6069,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6106,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>44258</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6126,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6163,14 +6168,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45644</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6220,14 +6225,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45234</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6239,13 +6244,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,13 +1299,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1342,14 +1337,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 449-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44566</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1361,8 +1356,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7170-2021</t>
+          <t>A 13572-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44238</v>
+        <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1513,14 +1513,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13572-2022</t>
+          <t>A 18303-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44648.45946759259</v>
+        <v>44685.55225694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1532,8 +1532,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1570,14 +1575,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 449-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44566</v>
+        <v>44382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1591,11 +1596,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1632,14 +1637,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18303-2022</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44685.55225694444</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1657,7 +1662,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1694,14 +1699,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 65754-2021</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44516.84273148148</v>
+        <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1719,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1756,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 65754-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>44516.84273148148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1776,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1813,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1833,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1870,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1890,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45771</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1941,13 +1946,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45234</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45744</v>
+        <v>44972</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45699</v>
+        <v>45041</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2117,13 +2117,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2160,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>44972</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2180,7 +2175,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2217,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2236,13 +2231,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2279,14 +2269,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>44911</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2298,8 +2288,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2336,14 +2331,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2355,8 +2350,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>12.9</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2393,14 +2393,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2450,14 +2450,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45251</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2507,14 +2507,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45251</v>
+        <v>45471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45903</v>
+        <v>45644</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2621,14 +2621,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45197</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2640,13 +2640,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2683,14 +2678,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2702,8 +2697,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2759,8 +2759,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2797,14 +2802,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>44258</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2817,7 +2822,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2854,14 +2859,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>44782</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2873,13 +2878,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2916,14 +2916,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45644</v>
+        <v>45827.32375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2935,8 +2935,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2973,14 +2978,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2992,13 +2997,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3035,14 +3035,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45926</v>
+        <v>45827.364375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44790</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>44972</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3173,13 +3173,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3216,14 +3211,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3235,13 +3230,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3278,14 +3268,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3303,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3340,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44972</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3360,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3397,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>44972</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3417,7 +3407,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3454,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>44972</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3474,7 +3464,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3511,14 +3501,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45282</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3530,13 +3520,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3573,14 +3558,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3592,8 +3577,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3630,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45211</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3650,7 +3640,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3687,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3707,7 +3697,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3744,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3763,8 +3753,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>21.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3816,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45448</v>
+        <v>45197</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3877,8 +3872,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45679</v>
+        <v>45448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45958</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45960</v>
+        <v>44790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44972</v>
+        <v>45631</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45968</v>
+        <v>45211</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45975</v>
+        <v>45420</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4452,13 +4452,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4495,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45631</v>
+        <v>45699</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4514,8 +4509,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4552,14 +4552,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4573,11 +4573,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4614,14 +4614,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45251</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4671,14 +4671,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45251</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4728,14 +4728,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45041</v>
+        <v>45744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4785,14 +4785,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45282</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4842,14 +4842,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4899,14 +4899,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45903</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4956,14 +4956,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44782</v>
+        <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5013,14 +5013,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5070,14 +5070,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5127,14 +5127,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5184,14 +5184,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44972</v>
+        <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5203,8 +5203,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5241,14 +5246,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44972</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5266,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5298,14 +5303,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44911</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5317,13 +5322,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>12.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45420</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44972</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45471</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45251</v>
+        <v>45958</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45960</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5721,13 +5721,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5764,14 +5759,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45968</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,14 +5816,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5840,8 +5835,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5878,14 +5878,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5897,13 +5897,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>21.3</v>
+        <v>3.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5940,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45251</v>
+        <v>45975</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5960,7 +5955,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5997,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44951</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6016,8 +6011,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45771</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44258</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6165,17 +6165,17 @@
       </c>
       <c r="R97" s="2" t="inlineStr"/>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6221,63 +6221,6 @@
         <v>0</v>
       </c>
       <c r="R98" s="2" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>A 54628-2023</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>45234</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>MUNKFORS</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,8 +1299,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,14 +1342,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 449-2022</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44566</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1356,13 +1361,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18303-2022</t>
+          <t>A 449-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44685.55225694444</v>
+        <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1575,14 +1575,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 18303-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44382</v>
+        <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1596,11 +1596,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1637,14 +1637,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 65754-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1656,13 +1656,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1699,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44951</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1719,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1756,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 65754-2021</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44516.84273148148</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1776,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1813,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1870,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45251</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1890,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1927,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45771</v>
+        <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1946,8 +1941,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45234</v>
+        <v>45644</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44972</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2060,8 +2060,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2103,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45041</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2118,7 +2123,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2155,14 +2160,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44972</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2174,8 +2179,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2222,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45827.364375</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2231,8 +2241,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2284,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44911</v>
+        <v>45827.32375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2294,7 +2309,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2331,14 +2346,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2350,13 +2365,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2393,14 +2403,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2412,8 +2422,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2450,14 +2465,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2470,7 +2485,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2507,14 +2522,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45471</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2527,7 +2542,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2564,14 +2579,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45644</v>
+        <v>45903</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2584,7 +2599,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2621,14 +2636,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2641,7 +2656,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2678,14 +2693,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2740,14 +2755,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2759,13 +2774,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2802,14 +2812,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44258</v>
+        <v>45211</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2822,7 +2832,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2859,14 +2869,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44782</v>
+        <v>45926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2878,8 +2888,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2916,14 +2931,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2935,13 +2950,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2978,14 +2988,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45251</v>
+        <v>45448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2998,7 +3008,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3035,14 +3045,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3054,13 +3064,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3102,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45679</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3122,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3159,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44972</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3174,7 +3179,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3211,14 +3216,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>44972</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3231,7 +3236,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3268,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3287,13 +3292,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44972</v>
+        <v>45631</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44972</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3463,8 +3463,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3501,14 +3506,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45282</v>
+        <v>45958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3521,7 +3526,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3558,14 +3563,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45960</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3577,13 +3582,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45968</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3677,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45041</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>21.3</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45282</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45197</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3872,13 +3872,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45448</v>
+        <v>45975</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3967,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3987,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4024,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44790</v>
+        <v>44782</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4044,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4081,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4101,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4138,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45631</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4162,8 +4157,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45211</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4276,13 +4276,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45420</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4334,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4391,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45699</v>
+        <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4509,13 +4504,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4552,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4571,13 +4561,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4614,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45251</v>
+        <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4633,8 +4618,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4671,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45251</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4728,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45744</v>
+        <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4785,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4842,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4899,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45903</v>
+        <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4963,7 +4953,7 @@
         <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5032,8 +5022,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5070,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45679</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5127,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5184,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5209,7 +5204,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>21.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5246,14 +5241,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5266,7 +5261,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5303,14 +5298,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5323,7 +5318,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>12.9</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5360,14 +5355,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5380,7 +5375,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5417,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5437,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5474,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5494,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5531,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5551,7 +5546,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5588,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5608,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5645,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45958</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5665,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5702,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45960</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5721,8 +5716,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45968</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5835,13 +5835,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5878,14 +5873,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5897,8 +5892,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45975</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6013,11 +6013,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>12.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,13 +1299,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1342,14 +1337,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1361,8 +1356,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45251</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45251</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1922,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45197</v>
+        <v>45251</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1941,13 +1941,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1979,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45644</v>
+        <v>45197</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2003,8 +1998,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2060,13 +2060,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2103,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2122,8 +2117,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2160,14 +2160,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2179,13 +2179,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2222,14 +2217,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2241,13 +2236,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2284,14 +2274,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45827.364375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2309,7 +2299,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2346,14 +2336,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44790</v>
+        <v>45827.32375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2365,8 +2355,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2403,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2428,7 +2423,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2465,14 +2460,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44972</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2485,7 +2480,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2522,14 +2517,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2541,8 +2536,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2579,14 +2579,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45903</v>
+        <v>44790</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2636,14 +2636,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2655,8 +2655,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2693,14 +2698,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2712,13 +2717,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2755,14 +2755,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>44972</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2812,14 +2812,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45211</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2869,14 +2869,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45926</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2888,13 +2888,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2931,14 +2926,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2951,7 +2946,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2988,14 +2983,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45448</v>
+        <v>45958</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3008,7 +3003,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3045,14 +3040,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45960</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3065,7 +3060,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3102,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45679</v>
+        <v>45968</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3122,7 +3117,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3159,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3178,8 +3173,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3216,14 +3216,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44972</v>
+        <v>45975</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3273,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3349,8 +3349,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3392,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45631</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3412,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3449,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45211</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3463,13 +3468,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3506,14 +3506,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45958</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3525,8 +3525,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3563,14 +3568,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45960</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3583,7 +3588,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3620,14 +3625,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45968</v>
+        <v>45448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3640,7 +3645,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3677,14 +3682,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45041</v>
+        <v>45679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3734,14 +3739,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3753,13 +3758,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45282</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>44972</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45975</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3967,14 +3967,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45631</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4024,14 +4024,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44782</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4043,8 +4043,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4081,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45041</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4138,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45282</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4157,13 +4162,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1770,8 +1770,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1813,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45975</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1833,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1870,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45251</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1890,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45251</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1942,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1979,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45197</v>
+        <v>45251</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1998,13 +2003,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45644</v>
+        <v>45251</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2119,11 +2119,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2160,14 +2160,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2217,14 +2217,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45903</v>
+        <v>45197</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2236,8 +2236,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2274,14 +2279,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2295,11 +2300,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2336,14 +2341,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2355,13 +2360,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2417,13 +2417,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2467,7 +2462,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2517,14 +2512,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45926</v>
+        <v>45827.364375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2542,7 +2537,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2579,14 +2574,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44790</v>
+        <v>45827.32375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2598,8 +2593,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2636,14 +2636,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2698,14 +2698,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2717,8 +2717,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2755,14 +2760,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44972</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2775,7 +2780,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2812,14 +2817,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2832,7 +2837,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2869,14 +2874,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2888,8 +2893,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2926,14 +2936,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>44972</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2946,7 +2956,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2983,14 +2993,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45958</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3003,7 +3013,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3040,14 +3050,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45960</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3060,7 +3070,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3107,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45968</v>
+        <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3127,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3164,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45960</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3173,13 +3183,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3216,14 +3221,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45975</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3236,7 +3241,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3273,14 +3278,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45968</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3293,7 +3298,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3335,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3349,13 +3354,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3392,14 +3392,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3411,8 +3411,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3449,14 +3454,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45211</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3469,7 +3474,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3506,14 +3511,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45211</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3525,13 +3530,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3568,14 +3568,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3625,14 +3625,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45448</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3682,14 +3682,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45679</v>
+        <v>45448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3739,14 +3739,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44972</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>44972</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>45631</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45041</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>45282</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45420</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44972</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45471</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45251</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45251</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44951</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>45771</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>45234</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45744</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45699</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,8 +1299,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,14 +1342,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1356,13 +1361,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45679</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1770,13 +1770,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1813,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45975</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1833,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1870,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1890,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1927,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1942,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1979,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45251</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +1999,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>12.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2036,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45251</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2056,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2093,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2117,13 +2112,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2160,14 +2150,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45644</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2179,8 +2169,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2217,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45197</v>
+        <v>44951</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2236,13 +2231,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2279,14 +2269,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2298,13 +2288,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2341,14 +2326,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45903</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2361,7 +2346,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2398,14 +2383,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2418,7 +2403,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2455,14 +2440,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2475,7 +2460,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2512,14 +2497,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45234</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2531,13 +2516,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2574,14 +2554,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45827.32375</v>
+        <v>45903</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2593,13 +2573,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2636,14 +2611,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45926</v>
+        <v>45958</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2655,13 +2630,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2698,14 +2668,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45960</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2717,13 +2687,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2760,14 +2725,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45968</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2780,7 +2745,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2817,14 +2782,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44790</v>
+        <v>45041</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2837,7 +2802,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2874,14 +2839,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2893,13 +2858,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2936,14 +2896,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44972</v>
+        <v>45644</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2956,7 +2916,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2993,14 +2953,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3012,8 +2972,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3050,14 +3015,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3069,8 +3034,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3107,14 +3077,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45958</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3126,8 +3096,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3164,14 +3139,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45960</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3184,7 +3159,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3221,14 +3196,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45827.32375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3240,8 +3215,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3278,14 +3258,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3298,7 +3278,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3335,14 +3315,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45827.364375</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3354,8 +3334,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3392,14 +3377,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3413,11 +3398,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3454,14 +3439,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3473,8 +3458,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3511,14 +3501,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45211</v>
+        <v>44782</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3531,7 +3521,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3568,14 +3558,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45251</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3588,7 +3578,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3625,14 +3615,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3645,7 +3635,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3682,14 +3672,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45448</v>
+        <v>44972</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3702,7 +3692,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3739,14 +3729,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3749,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3786,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45679</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3815,8 +3805,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3848,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>44972</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3868,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3925,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3967,14 +3962,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45631</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3982,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4024,14 +4019,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4043,13 +4038,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4076,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45041</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4096,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4133,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45282</v>
+        <v>45197</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4160,6 +4150,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -4200,14 +4195,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4215,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4252,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>44790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4272,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4309,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44782</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4333,8 +4328,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>44972</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44972</v>
+        <v>44911</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4561,8 +4561,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44911</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4629,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4666,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4686,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4723,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45420</v>
+        <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4743,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4780,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4800,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4837,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44972</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4851,8 +4856,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4899,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45471</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4919,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4956,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45251</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,8 +4975,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>21.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5018,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5022,13 +5037,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5075,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5085,7 +5095,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5132,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45631</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5152,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5189,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45211</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5198,13 +5208,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>21.3</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5241,14 +5246,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45251</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5266,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5298,14 +5303,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44951</v>
+        <v>44258</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5323,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5355,14 +5360,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45771</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5380,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44258</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5437,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5474,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45282</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5494,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5531,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45234</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5551,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5588,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45420</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5608,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5645,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5665,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5702,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45699</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5718,11 +5723,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5759,14 +5764,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5778,8 +5783,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5816,14 +5826,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45744</v>
+        <v>45251</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5836,7 +5846,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5873,14 +5883,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45699</v>
+        <v>45251</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5892,13 +5902,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5940,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45744</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5955,7 +5960,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5997,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6011,13 +6016,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45251</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45771</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45679</v>
+        <v>45251</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1882,6 +1882,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1922,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1942,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1979,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1998,8 +2003,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>12.9</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2036,14 +2046,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45827.364375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2055,8 +2065,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2093,14 +2108,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45827.32375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2112,8 +2127,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2150,14 +2170,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>44790</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2169,13 +2189,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2227,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44951</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2231,8 +2246,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2289,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2289,7 +2309,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2326,14 +2346,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2346,7 +2366,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2383,14 +2403,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2403,7 +2423,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2440,14 +2460,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2460,7 +2480,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2497,14 +2517,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45234</v>
+        <v>45926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2516,8 +2536,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2554,14 +2579,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45903</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2574,7 +2599,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2611,14 +2636,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45958</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2630,8 +2655,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2668,14 +2698,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45960</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2688,7 +2718,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2725,14 +2755,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45968</v>
+        <v>45211</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2745,7 +2775,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2782,14 +2812,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45041</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2802,7 +2832,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2839,14 +2869,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2859,7 +2889,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2896,14 +2926,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45644</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2916,7 +2946,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2953,14 +2983,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2972,13 +3002,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3015,14 +3040,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45926</v>
+        <v>45679</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3034,13 +3059,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3077,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3096,13 +3116,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3139,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45960</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3159,7 +3174,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3196,14 +3211,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45827.32375</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3215,13 +3230,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3258,14 +3268,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45975</v>
+        <v>44972</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3278,7 +3288,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3315,14 +3325,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45968</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3332,11 +3342,6 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -3377,14 +3382,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3398,11 +3403,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3439,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45975</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3458,13 +3463,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3501,14 +3501,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44782</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3558,14 +3558,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45251</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3577,8 +3577,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3615,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45631</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3635,7 +3640,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3672,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44972</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3691,8 +3696,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3736,7 +3746,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,14 +3796,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45041</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3805,13 +3815,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3848,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44972</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3868,7 +3873,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3905,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44972</v>
+        <v>45282</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3925,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3962,14 +3967,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3982,7 +3987,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4019,14 +4024,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4076,14 +4081,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>44782</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4096,7 +4101,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4133,14 +4138,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45197</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4152,13 +4157,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4195,14 +4195,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4252,14 +4252,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44790</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>44972</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4328,13 +4328,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4366,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>44972</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4386,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4423,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44972</v>
+        <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4447,8 +4442,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44972</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44911</v>
+        <v>45420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4561,13 +4561,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4623,13 +4618,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4666,14 +4656,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4676,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4730,7 +4720,7 @@
         <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4780,14 +4770,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45251</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4800,7 +4790,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4837,14 +4827,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4899,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4956,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4975,13 +4965,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>21.3</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5018,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45448</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5037,8 +5022,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>21.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5075,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45251</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5095,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5132,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45631</v>
+        <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5152,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5189,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45211</v>
+        <v>45771</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5209,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5246,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>44258</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5266,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5303,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44258</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5323,7 +5313,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5360,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45234</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5380,7 +5370,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5417,14 +5407,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5437,7 +5427,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5474,14 +5464,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45282</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5494,7 +5484,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5531,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5550,8 +5540,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5588,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45420</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5608,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5645,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45744</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5665,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5709,7 +5704,7 @@
         <v>45699</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,14 +5759,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5783,13 +5778,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5826,14 +5816,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45251</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5845,8 +5835,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5883,14 +5878,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45251</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5903,7 +5898,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5940,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45744</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5960,7 +5955,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>12.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5997,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6017,7 +6012,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6054,14 +6049,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6074,7 +6069,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6106,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45251</v>
+        <v>45644</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6126,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6163,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6187,8 +6182,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45251</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45000.41804398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45827.32375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44790</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45000.37181712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45216.67372685186</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45936.63261574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45188.43435185185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45211</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45272.58515046296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45951.7856712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>45448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45679</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>45960</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44812.47114583333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44972</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45968</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45973.59792824074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45975</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45978.47861111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>45980.41454861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45631</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>45041</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45999.55783564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>45282</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44782</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>46044.65489583334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44972</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44972</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>45251</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45251</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>45771</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44258</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45234</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45744</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>45699</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>45796.60744212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>45644</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45812.34395833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45251</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45000.41804398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45827.32375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44790</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45000.37181712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45216.67372685186</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45936.63261574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45188.43435185185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45211</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45946.44871527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45272.58515046296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45951.7856712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>45448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45679</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>45960</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44812.47114583333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44972</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45968</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45973.59792824074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>45975</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45978.47861111111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>45980.41454861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45631</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>45041</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45999.55783564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>45282</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44782</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>46044.65489583334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44972</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44972</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>45471</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>45251</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45251</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>45771</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44258</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45234</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45744</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>45699</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>45796.60744212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>45644</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45812.34395833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 46429-2021</t>
+          <t>A 24566-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44441</v>
+        <v>44727.41703703703</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 24566-2022</t>
+          <t>A 46429-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44727.41703703703</v>
+        <v>44441</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 13599-2022</t>
+          <t>A 10721-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44648</v>
+        <v>44258</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 38945-2021</t>
+          <t>A 69319-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44411</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -995,14 +995,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 38947-2021</t>
+          <t>A 13599-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44411</v>
+        <v>44648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1052,14 +1052,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 10721-2021</t>
+          <t>A 13576-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44258</v>
+        <v>44648.46362268519</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1109,14 +1109,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 69319-2021</t>
+          <t>A 41150-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44531</v>
+        <v>44825.84459490741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1166,14 +1166,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13576-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44648.46362268519</v>
+        <v>44382</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,8 +1185,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1223,14 +1228,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 41150-2022</t>
+          <t>A 22459-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44825.84459490741</v>
+        <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1243,7 +1248,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1280,14 +1285,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,13 +1304,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 38945-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22459-2021</t>
+          <t>A 38947-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44326</v>
+        <v>44411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45251</v>
+        <v>44972</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45251</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1825,6 +1825,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1865,14 +1870,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45197</v>
+        <v>44972</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1884,13 +1889,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>44972</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2003,13 +2003,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2046,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2065,13 +2060,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2108,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45827.32375</v>
+        <v>44790</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2127,13 +2117,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2170,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44790</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2190,7 +2175,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2227,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2252,7 +2237,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2289,14 +2274,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44972</v>
+        <v>45197</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2308,8 +2293,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2346,14 +2336,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45903</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2365,8 +2355,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2403,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2423,7 +2418,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2460,14 +2455,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>44782</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2480,7 +2475,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2517,14 +2512,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45926</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2536,13 +2531,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2579,14 +2569,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45471</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2599,7 +2589,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2643,7 +2633,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,14 +2688,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45251</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2718,7 +2708,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2755,14 +2745,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45211</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2775,7 +2765,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2812,14 +2802,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2832,7 +2822,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2869,14 +2859,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>44972</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2889,7 +2879,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2926,14 +2916,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2946,7 +2936,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2983,14 +2973,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45448</v>
+        <v>44972</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3003,7 +2993,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3040,14 +3030,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45679</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3059,8 +3049,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>21.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3092,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45958</v>
+        <v>44951</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3149,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45960</v>
+        <v>44911</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3173,8 +3168,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3211,14 +3211,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3230,8 +3230,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3268,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44972</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3288,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3325,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45968</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3345,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3382,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45448</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3401,13 +3406,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45975</v>
+        <v>45234</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3501,14 +3501,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3520,8 +3520,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3558,14 +3563,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3577,13 +3582,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>45631</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3677,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45211</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3696,13 +3696,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3739,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45041</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3754,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3796,14 +3791,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45041</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3811,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3848,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>44258</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3868,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45282</v>
+        <v>45903</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3925,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3967,14 +3962,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3982,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4024,14 +4019,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4044,7 +4039,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4081,14 +4076,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44782</v>
+        <v>45282</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,7 +4096,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4138,14 +4133,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4195,14 +4190,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4214,8 +4209,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4252,14 +4252,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44972</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4366,14 +4366,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44972</v>
+        <v>45420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4423,14 +4423,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44911</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4440,11 +4440,6 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -4485,14 +4480,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4500,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4537,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45420</v>
+        <v>45699</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4561,8 +4556,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4656,14 +4656,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44972</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4675,8 +4675,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4713,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45471</v>
+        <v>45958</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4770,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>45251</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4790,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4827,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4846,13 +4851,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45744</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5022,13 +5022,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>21.3</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45251</v>
+        <v>45960</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5085,7 +5080,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5117,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44951</v>
+        <v>45968</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5137,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5174,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45771</v>
+        <v>45251</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5199,7 +5194,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5231,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44258</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5256,7 +5251,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5288,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5312,8 +5307,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5350,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45234</v>
+        <v>45679</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5407,14 +5407,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5464,14 +5464,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45975</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5521,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45744</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>12.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45699</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5716,13 +5716,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5759,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5779,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5816,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5835,13 +5830,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5878,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5898,7 +5888,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5925,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5955,7 +5945,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>12.9</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5982,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45644</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6012,7 +6002,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6049,14 +6039,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6068,8 +6058,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6106,14 +6101,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45644</v>
+        <v>45827.32375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6125,8 +6120,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45827.364375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6184,11 +6184,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,14 +767,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24566-2022</t>
+          <t>A 46429-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727.41703703703</v>
+        <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46429-2021</t>
+          <t>A 24566-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44441</v>
+        <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 10721-2021</t>
+          <t>A 13599-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44258</v>
+        <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 69319-2021</t>
+          <t>A 38945-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44531</v>
+        <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -995,14 +995,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 13599-2022</t>
+          <t>A 38947-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44648</v>
+        <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1052,14 +1052,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 13576-2022</t>
+          <t>A 10721-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44648.46362268519</v>
+        <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1109,14 +1109,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 41150-2022</t>
+          <t>A 69319-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44825.84459490741</v>
+        <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1166,14 +1166,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13576-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,13 +1185,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1228,14 +1223,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 22459-2021</t>
+          <t>A 41150-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44326</v>
+        <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,7 +1243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1285,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1304,8 +1299,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38945-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44411</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 38947-2021</t>
+          <t>A 22459-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44411</v>
+        <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45771</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44972</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1827,13 +1827,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>12.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1870,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44972</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1890,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1927,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44972</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1942,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1979,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45251</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +1999,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2036,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45251</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2056,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2093,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44790</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2155,14 +2150,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45197</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2174,8 +2169,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2231,13 +2231,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2274,14 +2269,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45197</v>
+        <v>45644</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2293,13 +2288,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2336,14 +2326,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2355,13 +2345,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2398,14 +2383,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2417,8 +2402,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2455,14 +2445,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44782</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2475,7 +2465,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2512,14 +2502,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2531,8 +2521,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2569,14 +2564,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45471</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2588,8 +2583,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45827.364375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2688,14 +2688,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45251</v>
+        <v>45827.32375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2707,8 +2707,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2745,14 +2750,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>44790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2765,7 +2770,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2802,14 +2807,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2821,8 +2826,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2859,14 +2869,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44972</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2879,7 +2889,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2916,14 +2926,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>44972</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2936,7 +2946,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2973,14 +2983,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44972</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2993,7 +3003,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3030,14 +3040,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3049,13 +3059,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>21.3</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3092,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44951</v>
+        <v>45958</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3112,7 +3117,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3149,14 +3154,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44911</v>
+        <v>45960</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3168,13 +3173,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3211,14 +3211,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3273,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45211</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3387,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45448</v>
+        <v>45968</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3444,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45234</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3463,8 +3463,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3501,14 +3506,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3520,13 +3525,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3563,14 +3563,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45975</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45631</v>
+        <v>45448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45211</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45041</v>
+        <v>45679</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3791,14 +3791,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3810,8 +3810,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3848,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44258</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3868,7 +3873,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3905,14 +3910,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45903</v>
+        <v>44972</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3925,7 +3930,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3962,14 +3967,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3982,7 +3987,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4019,14 +4024,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4076,14 +4081,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45282</v>
+        <v>45631</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4096,7 +4101,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4133,14 +4138,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4152,8 +4157,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4190,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45926</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4209,13 +4219,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4252,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45041</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4272,7 +4277,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4309,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45282</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4329,7 +4334,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4366,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45420</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4386,7 +4391,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4423,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4443,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4480,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>44782</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4500,7 +4505,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4537,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45699</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4556,13 +4561,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4656,14 +4656,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>44972</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4675,13 +4675,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4713,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45958</v>
+        <v>44972</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4733,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4770,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45251</v>
+        <v>44911</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4794,8 +4789,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45251</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45744</v>
+        <v>45420</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>44972</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45960</v>
+        <v>45471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5117,14 +5117,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45968</v>
+        <v>45251</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5174,14 +5174,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45251</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5193,8 +5193,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5231,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5251,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5288,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5307,13 +5312,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5350,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45679</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5369,8 +5369,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>21.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5407,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45251</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5427,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5464,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45975</v>
+        <v>44951</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5484,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5521,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45771</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5540,13 +5545,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>44258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12.9</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45234</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5887,8 +5887,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5930,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5950,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5982,14 +5987,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45644</v>
+        <v>45744</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6007,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6044,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6101,14 +6106,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.32375</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6120,13 +6125,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1223,14 +1223,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 41150-2022</t>
+          <t>A 22459-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44825.84459490741</v>
+        <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 41150-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44382</v>
+        <v>44825.84459490741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,13 +1299,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1342,14 +1337,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1361,8 +1356,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1399,14 +1399,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22459-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44326</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 19994-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45282</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12.9</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1884,8 +1884,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1942,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1979,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45251</v>
+        <v>44782</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1999,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2036,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45251</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2056,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2093,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45251</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2113,7 +2118,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2150,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45197</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2169,13 +2174,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45903</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2269,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45644</v>
+        <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2345,8 +2345,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2383,14 +2388,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2404,11 +2409,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2445,14 +2450,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>44972</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2465,7 +2470,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2502,14 +2507,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45926</v>
+        <v>44972</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2521,13 +2526,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2564,14 +2564,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2583,13 +2583,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2626,14 +2621,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45827.364375</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2645,13 +2640,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2688,14 +2678,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45827.32375</v>
+        <v>44951</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2707,13 +2697,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2750,14 +2735,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44790</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2770,7 +2755,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2807,14 +2792,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45699</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,11 +2813,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2869,14 +2854,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>45471</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2889,7 +2874,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2926,14 +2911,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44972</v>
+        <v>45234</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2946,7 +2931,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2983,14 +2968,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3002,8 +2987,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3040,14 +3030,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>45251</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3060,7 +3050,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3097,14 +3087,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45958</v>
+        <v>45251</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3117,7 +3107,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3154,14 +3144,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45960</v>
+        <v>45041</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3174,7 +3164,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3211,14 +3201,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45744</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3230,13 +3220,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3273,14 +3258,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3293,7 +3278,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3330,14 +3315,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45211</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3350,7 +3335,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3387,14 +3372,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45968</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3407,7 +3392,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3444,14 +3429,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45197</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3469,7 +3454,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3506,14 +3491,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45251</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3526,7 +3511,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3563,14 +3548,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45975</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3583,7 +3568,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3620,14 +3605,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45448</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3640,7 +3625,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3677,14 +3662,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3734,14 +3719,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45679</v>
+        <v>44790</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3754,7 +3739,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3791,14 +3776,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3810,13 +3795,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3853,14 +3833,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3872,8 +3852,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3910,14 +3895,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44972</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3915,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3967,14 +3952,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3972,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>12.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4024,14 +4009,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4044,7 +4029,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4081,14 +4066,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45631</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,7 +4086,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4138,14 +4123,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,11 +4144,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4185,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>44972</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4205,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4242,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45041</v>
+        <v>44972</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4262,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4299,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45282</v>
+        <v>44911</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4333,8 +4318,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4361,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4381,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4418,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4447,8 +4437,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4480,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44782</v>
+        <v>45903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4500,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4537,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4557,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4594,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4614,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4656,14 +4651,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44972</v>
+        <v>45926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4675,8 +4670,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4713,14 +4713,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44972</v>
+        <v>45644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4770,14 +4770,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44911</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4791,11 +4791,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45420</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,8 +4965,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>21.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5008,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44972</v>
+        <v>45827.32375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5022,8 +5027,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5070,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45471</v>
+        <v>45827.364375</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5079,8 +5089,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5117,14 +5132,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45251</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5137,7 +5152,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5174,14 +5189,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5193,13 +5208,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5246,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5256,7 +5266,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5303,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45958</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5313,7 +5323,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>7.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5350,14 +5360,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>45960</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5369,13 +5379,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>21.3</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45251</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5437,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5474,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44951</v>
+        <v>45631</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5494,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5531,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19994-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45771</v>
+        <v>45968</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5551,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5588,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44258</v>
+        <v>45211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5608,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5645,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5659,8 +5664,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5707,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45234</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5727,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5764,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>45975</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5784,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5821,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5830,8 +5840,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5883,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5887,13 +5902,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5930,14 +5940,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5950,7 +5960,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5987,14 +5997,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45744</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6007,7 +6017,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6044,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45699</v>
+        <v>44258</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6063,13 +6073,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6106,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6126,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6163,14 +6168,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6182,13 +6187,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1223,14 +1223,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 22459-2021</t>
+          <t>A 41150-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44326</v>
+        <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 41150-2022</t>
+          <t>A 34538-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44825.84459490741</v>
+        <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1299,8 +1299,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,14 +1342,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34538-2021</t>
+          <t>A 13578-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44382</v>
+        <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1356,13 +1361,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1399,14 +1399,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13578-2022</t>
+          <t>A 22459-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44648.46649305556</v>
+        <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24567-2022</t>
+          <t>A 50428-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44727.42390046296</v>
+        <v>45216.67372685186</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64772-2023</t>
+          <t>A 38238-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45282</v>
+        <v>44812.47114583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12588-2023</t>
+          <t>A 22225-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45000.41804398148</v>
+        <v>45446.41994212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 50428-2023</t>
+          <t>A 4610-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45216.67372685186</v>
+        <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32389-2022</t>
+          <t>A 4795-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44782</v>
+        <v>44957.61341435185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16684-2025</t>
+          <t>A 54628-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45754.45274305555</v>
+        <v>45234</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59146-2023</t>
+          <t>A 18313-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45251</v>
+        <v>45041</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59340-2024</t>
+          <t>A 60794-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45637.86574074074</v>
+        <v>45644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38238-2022</t>
+          <t>A 27162-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44812.47114583333</v>
+        <v>45812.34395833333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2231,8 +2231,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2274,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7688-2023</t>
+          <t>A 30160-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44972</v>
+        <v>45827.32375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2288,8 +2293,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2326,14 +2336,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22225-2024</t>
+          <t>A 30207-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45446.41994212963</v>
+        <v>45827.364375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2351,7 +2361,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2388,14 +2398,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12563-2023</t>
+          <t>A 12588-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45000.37181712963</v>
+        <v>45000.41804398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2413,7 +2423,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2450,14 +2460,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7683-2023</t>
+          <t>A 32389-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44972</v>
+        <v>44782</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2470,7 +2480,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2507,14 +2517,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7687-2023</t>
+          <t>A 41967-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44972</v>
+        <v>45903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2527,7 +2537,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2564,14 +2574,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18167-2024</t>
+          <t>A 59146-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45420</v>
+        <v>45251</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2584,7 +2594,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2621,14 +2631,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12114-2022</t>
+          <t>A 59340-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44636.56490740741</v>
+        <v>45637.86574074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2641,7 +2651,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2678,14 +2688,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 4610-2023</t>
+          <t>A 7688-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44951</v>
+        <v>44972</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2698,7 +2708,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2735,14 +2745,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 4795-2023</t>
+          <t>A 12563-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44957.61341435185</v>
+        <v>45000.37181712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2752,6 +2762,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2792,14 +2807,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6579-2025</t>
+          <t>A 7683-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45699</v>
+        <v>44972</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2811,13 +2826,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2854,14 +2864,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 27069-2024</t>
+          <t>A 7687-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45471</v>
+        <v>44972</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2874,7 +2884,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2911,14 +2921,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54628-2023</t>
+          <t>A 45153-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45234</v>
+        <v>45919.4753587963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2931,7 +2941,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2968,14 +2978,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13431-2024</t>
+          <t>A 46577-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45387.48258101852</v>
+        <v>45926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2993,7 +3003,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3030,14 +3040,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59128-2023</t>
+          <t>A 44098-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45251</v>
+        <v>45188.43074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3050,7 +3060,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3087,14 +3097,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 59137-2023</t>
+          <t>A 46447-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45251</v>
+        <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3106,8 +3116,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3144,14 +3159,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 18313-2023</t>
+          <t>A 48711-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45041</v>
+        <v>45936.63261574074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3164,7 +3179,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3201,14 +3216,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15125-2025</t>
+          <t>A 9779-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45744</v>
+        <v>45716.49689814815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3221,7 +3236,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3258,14 +3273,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27044-2023</t>
+          <t>A 33908-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45095.80391203704</v>
+        <v>44790</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3278,7 +3293,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3315,14 +3330,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44104-2023</t>
+          <t>A 42079-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45188.43435185185</v>
+        <v>44426.58417824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3334,8 +3349,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3372,14 +3392,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44098-2023</t>
+          <t>A 50770-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45188.43074074074</v>
+        <v>45946.44871527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3392,7 +3412,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3429,14 +3449,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46447-2023</t>
+          <t>A 27045-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45197</v>
+        <v>45095.81844907408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3448,13 +3468,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3491,14 +3506,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59132-2023</t>
+          <t>A 51806-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45251</v>
+        <v>45951.7856712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3511,7 +3526,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3548,14 +3563,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58049-2024</t>
+          <t>A 53284-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45631.82186342592</v>
+        <v>45958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3568,7 +3583,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>7.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3605,14 +3620,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9766-2025</t>
+          <t>A 7614-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45716.48475694445</v>
+        <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3625,7 +3640,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3662,14 +3677,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9779-2025</t>
+          <t>A 7646-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45716.49689814815</v>
+        <v>44972</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3682,7 +3697,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3719,14 +3734,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33908-2022</t>
+          <t>A 53524-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44790</v>
+        <v>45960</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3739,7 +3754,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3776,14 +3791,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3333-2025</t>
+          <t>A 60564-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45679</v>
+        <v>44911</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3795,8 +3810,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3833,14 +3853,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42079-2021</t>
+          <t>A 6859-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44426.58417824074</v>
+        <v>44967.45532407407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3854,7 +3874,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -3895,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21753-2025</t>
+          <t>A 55254-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45783.61751157408</v>
+        <v>45968</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3915,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3952,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21609-2025</t>
+          <t>A 62977-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45783.39092592592</v>
+        <v>45272.58515046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3972,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.9</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4009,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21614-2025</t>
+          <t>A 56023-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45783.40027777778</v>
+        <v>45973.59792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4028,8 +4048,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4066,14 +4091,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27045-2023</t>
+          <t>A 27069-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45095.81844907408</v>
+        <v>45471</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4086,7 +4111,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4123,14 +4148,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56776-2024</t>
+          <t>A 56837-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45628.43709490741</v>
+        <v>45978.47861111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4142,13 +4167,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4185,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7614-2023</t>
+          <t>A 56717-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44972</v>
+        <v>45975</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4205,7 +4225,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4242,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7646-2023</t>
+          <t>A 57387-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44972</v>
+        <v>45980.41454861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4261,8 +4281,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4299,14 +4324,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60564-2022</t>
+          <t>A 9766-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44911</v>
+        <v>45716.48475694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4318,13 +4343,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4361,14 +4381,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24110-2025</t>
+          <t>A 60879-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45796.60744212963</v>
+        <v>45999.55783564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4381,7 +4401,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4418,14 +4438,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6859-2023</t>
+          <t>A 56776-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44967.45532407407</v>
+        <v>45628.43709490741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4443,7 +4463,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4480,14 +4500,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41967-2025</t>
+          <t>A 4156-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45903</v>
+        <v>46044.65489583334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4500,7 +4520,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4537,14 +4557,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62977-2023</t>
+          <t>A 42637-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45272.58515046296</v>
+        <v>45181.49590277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4557,7 +4577,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4594,14 +4614,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45153-2025</t>
+          <t>A 14613-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45919.4753587963</v>
+        <v>44655.61015046296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4613,8 +4633,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>21.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4651,14 +4676,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46577-2025</t>
+          <t>A 22757-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45926</v>
+        <v>45448</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4670,13 +4695,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4713,14 +4733,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60794-2024</t>
+          <t>A 15111-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45644</v>
+        <v>45744.35527777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4753,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4770,14 +4790,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27162-2025</t>
+          <t>A 58050-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45812.34395833333</v>
+        <v>45631</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4789,13 +4809,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4847,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48711-2025</t>
+          <t>A 49500-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45936.63261574074</v>
+        <v>45211</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4867,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4904,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42637-2023</t>
+          <t>A 55664-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45181.49590277778</v>
+        <v>44476.39673611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4924,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4961,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14613-2022</t>
+          <t>A 2668-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44655.61015046296</v>
+        <v>46037.64528935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,13 +4980,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>21.3</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5008,14 +5018,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30160-2025</t>
+          <t>A 10720-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45827.32375</v>
+        <v>44258</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5027,13 +5037,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5070,14 +5075,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30207-2025</t>
+          <t>A 47625-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45827.364375</v>
+        <v>45588.3347337963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5089,13 +5094,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50770-2025</t>
+          <t>A 24567-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45946.44871527778</v>
+        <v>44727.42390046296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51806-2025</t>
+          <t>A 64772-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45951.7856712963</v>
+        <v>45282</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 22757-2024</t>
+          <t>A 16684-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45448</v>
+        <v>45754.45274305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53284-2025</t>
+          <t>A 18167-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45958</v>
+        <v>45420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53524-2025</t>
+          <t>A 12114-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45960</v>
+        <v>44636.56490740741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15111-2025</t>
+          <t>A 6579-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45744.35527777778</v>
+        <v>45699</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5436,8 +5436,13 @@
           <t>MUNKFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5474,14 +5479,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58050-2024</t>
+          <t>A 13431-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45631</v>
+        <v>45387.48258101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5491,6 +5496,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>MUNKFORS</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -5531,14 +5541,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55254-2025</t>
+          <t>A 59128-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45968</v>
+        <v>45251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5551,7 +5561,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5588,14 +5598,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49500-2023</t>
+          <t>A 59137-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45211</v>
+        <v>45251</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5608,7 +5618,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5645,14 +5655,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56023-2025</t>
+          <t>A 15125-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45973.59792824074</v>
+        <v>45744</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5664,13 +5674,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5707,14 +5712,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56837-2025</t>
+          <t>A 27044-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45978.47861111111</v>
+        <v>45095.80391203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5727,7 +5732,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5764,14 +5769,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56717-2025</t>
+          <t>A 44104-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45975</v>
+        <v>45188.43435185185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5784,7 +5789,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5821,14 +5826,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57387-2025</t>
+          <t>A 59132-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45980.41454861111</v>
+        <v>45251</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5840,13 +5845,8 @@
           <t>MUNKFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5883,14 +5883,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55664-2021</t>
+          <t>A 58049-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44476.39673611111</v>
+        <v>45631.82186342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5940,14 +5940,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2668-2026</t>
+          <t>A 3333-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46037.64528935185</v>
+        <v>45679</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5997,14 +5997,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60879-2025</t>
+          <t>A 21753-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45999.55783564815</v>
+        <v>45783.61751157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6054,14 +6054,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10720-2021</t>
+          <t>A 21609-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44258</v>
+        <v>45783.39092592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.7</v>
+        <v>12.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4156-2026</t>
+          <t>A 21614-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46044.65489583334</v>
+        <v>45783.40027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6168,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47625-2024</t>
+          <t>A 24110-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45588.3347337963</v>
+        <v>45796.60744212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>

--- a/Översikt MUNKFORS.xlsx
+++ b/Översikt MUNKFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45188</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44335.44357638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44441</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44727.41703703703</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44648</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44411</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44411</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44531</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44648.46362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44825.84459490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44648.46649305556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>44326</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44648.45946759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44566</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>44685.55225694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44516.84273148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45771</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45216.67372685186</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44812.47114583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45446.41994212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44957.61341435185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45234</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45041</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45812.34395833333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>45827.32375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>45827.364375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45000.41804398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44782</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>45251</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45637.86574074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44972</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45000.37181712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44972</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44972</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>45919.4753587963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45188.43074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>45936.63261574074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>45716.49689814815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44790</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44426.58417824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45946.44871527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>45095.81844907408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45951.7856712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44972</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45960</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44911</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>44967.45532407407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45968</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45272.58515046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45973.59792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>45471</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45978.47861111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>45975</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>45980.41454861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>45716.48475694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45999.55783564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>45628.43709490741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>46044.65489583334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45181.49590277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44655.61015046296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45448</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>45744.35527777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45631</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45211</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44476.39673611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>46037.64528935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44258</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45588.3347337963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44727.42390046296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45282</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45754.45274305555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44636.56490740741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45699</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45387.48258101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>45251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45251</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45744</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45095.80391203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45188.43435185185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>45251</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45631.82186342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>45679</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45783.61751157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45783.39092592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>45783.40027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>45796.60744212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
